--- a/nodes_source_analyses/energy/energy/energy_flexibility_mv_batteries_electricity.xlsx
+++ b/nodes_source_analyses/energy/energy/energy_flexibility_mv_batteries_electricity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10402"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roosdekok/code/etdataset/nodes_source_analyses/energy/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyradehaan/github/etdataset/nodes_source_analyses/energy/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3943A051-FD3E-584F-81DE-75B7FF45C00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBB4DF1-6195-8344-8FD8-06034B96FB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11320" yWindow="-28300" windowWidth="30080" windowHeight="16100" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5740" yWindow="-21600" windowWidth="38400" windowHeight="21600" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="130">
   <si>
     <t>Source</t>
   </si>
@@ -441,9 +441,6 @@
     <t>EUR/MWh</t>
   </si>
   <si>
-    <t>Mathijs Bijkerk</t>
-  </si>
-  <si>
     <t>euro/MW</t>
   </si>
   <si>
@@ -460,6 +457,12 @@
   </si>
   <si>
     <t>energy_flexibility_mv_batteries_electricity.ad</t>
+  </si>
+  <si>
+    <t>Quintel assumption: output capacity is the same as input capacity</t>
+  </si>
+  <si>
+    <t>Kyra de Haan</t>
   </si>
 </sst>
 </file>
@@ -471,12 +474,19 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -999,602 +1009,605 @@
   </borders>
   <cellStyleXfs count="276">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="274" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="274" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="275" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="275" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2420,8 +2433,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
@@ -2456,7 +2469,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="152" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2465,7 +2478,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2624,8 +2637,8 @@
   </sheetPr>
   <dimension ref="B2:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16" customHeight="1"/>
@@ -2644,24 +2657,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="16" customHeight="1">
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="157" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="159"/>
     </row>
     <row r="3" spans="2:10" ht="16" customHeight="1">
-      <c r="B3" s="159"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="161"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="162"/>
     </row>
     <row r="4" spans="2:10" ht="32" customHeight="1">
-      <c r="B4" s="162"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="164"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="165"/>
     </row>
     <row r="5" spans="2:10" ht="16" customHeight="1" thickBot="1"/>
     <row r="6" spans="2:10" ht="16" customHeight="1">
@@ -2783,11 +2796,14 @@
       </c>
       <c r="E13" s="119">
         <f>'Research data'!E10</f>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F13" s="95"/>
       <c r="G13" s="96"/>
-      <c r="I13" s="125"/>
+      <c r="I13" s="151" t="str">
+        <f>'Research data'!I10</f>
+        <v>Quintel assumption: output capacity is the same as input capacity</v>
+      </c>
       <c r="J13" s="83"/>
     </row>
     <row r="14" spans="2:10" s="80" customFormat="1" ht="16" customHeight="1" thickBot="1">
@@ -2888,7 +2904,7 @@
         <v>105</v>
       </c>
       <c r="D20" s="97" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E20" s="98">
         <f>'Research data'!E15</f>
@@ -2936,7 +2952,7 @@
       <c r="F22" s="95"/>
       <c r="G22" s="95"/>
       <c r="I22" s="151" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J22" s="85"/>
     </row>
@@ -3028,7 +3044,7 @@
       <c r="F27" s="95"/>
       <c r="G27" s="95"/>
       <c r="I27" s="151" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J27" s="85"/>
     </row>
@@ -3046,7 +3062,7 @@
       <c r="F28" s="95"/>
       <c r="G28" s="95"/>
       <c r="I28" s="135" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J28" s="85"/>
     </row>
@@ -3205,7 +3221,7 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:I15"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
@@ -3361,13 +3377,14 @@
         <v>36</v>
       </c>
       <c r="E10" s="130">
-        <v>100</v>
+        <f>E9</f>
+        <v>80</v>
       </c>
       <c r="F10" s="41"/>
       <c r="G10" s="41"/>
       <c r="H10" s="40"/>
-      <c r="I10" s="128" t="s">
-        <v>78</v>
+      <c r="I10" s="156" t="s">
+        <v>128</v>
       </c>
       <c r="J10" s="68"/>
     </row>
@@ -3773,7 +3790,7 @@
   <dimension ref="B2:K180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
@@ -3895,13 +3912,13 @@
       <c r="B9" s="14"/>
       <c r="C9" s="12"/>
       <c r="D9" s="143" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E9" s="155">
         <v>0.01</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G9" s="143" t="s">
         <v>109</v>
